--- a/REyeker-DataAnalyses-Python/results/data_of_corrects.xlsx
+++ b/REyeker-DataAnalyses-Python/results/data_of_corrects.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive\Dokumente\GitHub\REyeker\REyeker-DataAnalyses-Python\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51104AE-8EDE-4693-B555-462E65B6B231}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="40470" yWindow="2640" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="corrects" sheetId="1" r:id="rId1"/>
     <sheet name="corrects.info" sheetId="2" r:id="rId2"/>
     <sheet name="corrects.weighted_info" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -909,9 +915,6 @@
     <t>231-65 208-51 208-33 272-69 396-91 216-145 269-127 341-111 225-62 224-44 328-82 455-89 327-114 422-89 391-108 489-136 297-174 422-164 431-254 586-236 503-238 263-199 229-224 143-39 295-230 468-261 624-242 312-260 309-275 310-295 301-286 253-333 315-358 339-349 372-337 472-340 700-323 683-325 653-344 718-340 679-328 319-355 115-361 39-371 497-336 794-321 422-275 607-258 152-319 359-2 122-22 313-30 141-85 358-75 470-89 232-111 318-113 330-134 477-138 287-160 117-256 314-253 217-277 377-349 178-220 386-250 521-260 331-266 321-285 302-322 494-342 578-350 653-334 758-340 658-337 498-317 655-339 865-333 700-338 562-335 800-324 558-187 442-115</t>
   </si>
   <si>
-    <t>244-51 541-84 236-98 458-112 -1-104 178-106 283-129 514-141 214-159 425-145 278-271 368-245 346-117 286-145 300-234 511-242 257-283 281-310 357-333 590-333 857-324 344-334 342-271 380-315 637-333 875-326 500-341 801-329 464-94 238-127 482-118 337-219 319-268 274-292 285-321 507-321 544-242 293-238 557-240 345-297 505-331 727-316 599-361 592-333 836-331 573-324 282-301 310-237 667-231 473-130 278-123 191-69 322-95 493-125 510-68 228-69 594-350 605-329 796-326 625-233 157-228 435-237 600-248 719-253 584-327 787-329 556-334 342-319 705-336 378-281 627-323 820-336 595-338 313-115 242-281 478-241 549-328 434-149 292-133 628-329 847-327 335-115 401-100</t>
-  </si>
-  <si>
     <t>234-46 492-69 209-116 442-148 185-177 188-141 265-207 553-189 118-227 363-262 160-352 198-137 147-324 553-344 234-377 374-368 170-354 202-414 200-362 243-411 224-466 235-348 486-340 359-145 168-83 455-84 208-459 206-521 189-596 185-530 253-337 251-397 247-369 246-424 385-72 464-209 201-216</t>
   </si>
   <si>
@@ -1264,13 +1267,16 @@
   </si>
   <si>
     <t>Bottom-Up</t>
+  </si>
+  <si>
+    <t>244-51 541-84 236-98 458-112 1-104 178-106 283-129 514-141 214-159 425-145 278-271 368-245 346-117 286-145 300-234 511-242 257-283 281-310 357-333 590-333 857-324 344-334 342-271 380-315 637-333 875-326 500-341 801-329 464-94 238-127 482-118 337-219 319-268 274-292 285-321 507-321 544-242 293-238 557-240 345-297 505-331 727-316 599-361 592-333 836-331 573-324 282-301 310-237 667-231 473-130 278-123 191-69 322-95 493-125 510-68 228-69 594-350 605-329 796-326 625-233 157-228 435-237 600-248 719-253 584-327 787-329 556-334 342-319 705-336 378-281 627-323 820-336 595-338 313-115 242-281 478-241 549-328 434-149 292-133 628-329 847-327 335-115 401-100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1329,15 +1335,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1379,7 +1393,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1411,9 +1425,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1445,6 +1477,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1620,14 +1670,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I390"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="O276" sqref="O276"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1653,7 +1705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1679,7 +1731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1705,7 +1757,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1731,7 +1783,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1757,7 +1809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1783,7 +1835,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1809,7 +1861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1835,7 +1887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -1861,7 +1913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>11</v>
       </c>
@@ -1887,7 +1939,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>12</v>
       </c>
@@ -1913,7 +1965,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>14</v>
       </c>
@@ -1939,7 +1991,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>15</v>
       </c>
@@ -1965,7 +2017,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>18</v>
       </c>
@@ -1991,7 +2043,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>22</v>
       </c>
@@ -2017,7 +2069,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>23</v>
       </c>
@@ -2043,7 +2095,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>24</v>
       </c>
@@ -2069,7 +2121,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>29</v>
       </c>
@@ -2095,7 +2147,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>31</v>
       </c>
@@ -2121,7 +2173,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>32</v>
       </c>
@@ -2147,7 +2199,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>33</v>
       </c>
@@ -2173,7 +2225,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>34</v>
       </c>
@@ -2199,7 +2251,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>35</v>
       </c>
@@ -2225,7 +2277,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>37</v>
       </c>
@@ -2251,7 +2303,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>38</v>
       </c>
@@ -2277,7 +2329,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>39</v>
       </c>
@@ -2303,7 +2355,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40</v>
       </c>
@@ -2329,7 +2381,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>41</v>
       </c>
@@ -2355,7 +2407,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43</v>
       </c>
@@ -2381,7 +2433,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44</v>
       </c>
@@ -2407,7 +2459,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45</v>
       </c>
@@ -2433,7 +2485,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>46</v>
       </c>
@@ -2459,7 +2511,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>47</v>
       </c>
@@ -2485,7 +2537,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>48</v>
       </c>
@@ -2511,7 +2563,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>49</v>
       </c>
@@ -2537,7 +2589,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>50</v>
       </c>
@@ -2563,7 +2615,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>51</v>
       </c>
@@ -2589,7 +2641,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>54</v>
       </c>
@@ -2615,7 +2667,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>55</v>
       </c>
@@ -2641,7 +2693,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>56</v>
       </c>
@@ -2667,7 +2719,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>57</v>
       </c>
@@ -2693,7 +2745,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>58</v>
       </c>
@@ -2719,7 +2771,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>59</v>
       </c>
@@ -2745,7 +2797,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>60</v>
       </c>
@@ -2771,7 +2823,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>61</v>
       </c>
@@ -2797,7 +2849,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>62</v>
       </c>
@@ -2823,7 +2875,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>63</v>
       </c>
@@ -2849,7 +2901,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>65</v>
       </c>
@@ -2875,7 +2927,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>66</v>
       </c>
@@ -2901,7 +2953,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>67</v>
       </c>
@@ -2927,7 +2979,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>75</v>
       </c>
@@ -2953,7 +3005,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>76</v>
       </c>
@@ -2979,7 +3031,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>80</v>
       </c>
@@ -3005,7 +3057,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>81</v>
       </c>
@@ -3031,7 +3083,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>82</v>
       </c>
@@ -3057,7 +3109,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>84</v>
       </c>
@@ -3083,7 +3135,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>85</v>
       </c>
@@ -3109,7 +3161,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>87</v>
       </c>
@@ -3135,7 +3187,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>88</v>
       </c>
@@ -3161,7 +3213,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>91</v>
       </c>
@@ -3187,7 +3239,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>92</v>
       </c>
@@ -3213,7 +3265,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>95</v>
       </c>
@@ -3239,7 +3291,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>100</v>
       </c>
@@ -3265,7 +3317,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>101</v>
       </c>
@@ -3291,7 +3343,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>102</v>
       </c>
@@ -3317,7 +3369,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>104</v>
       </c>
@@ -3343,7 +3395,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>109</v>
       </c>
@@ -3369,7 +3421,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>112</v>
       </c>
@@ -3395,7 +3447,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>114</v>
       </c>
@@ -3421,7 +3473,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>123</v>
       </c>
@@ -3447,7 +3499,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>124</v>
       </c>
@@ -3473,7 +3525,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>128</v>
       </c>
@@ -3499,7 +3551,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>130</v>
       </c>
@@ -3525,7 +3577,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>133</v>
       </c>
@@ -3551,7 +3603,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>136</v>
       </c>
@@ -3577,7 +3629,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>137</v>
       </c>
@@ -3603,7 +3655,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>138</v>
       </c>
@@ -3629,7 +3681,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>139</v>
       </c>
@@ -3655,7 +3707,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>140</v>
       </c>
@@ -3681,7 +3733,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>141</v>
       </c>
@@ -3707,7 +3759,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>144</v>
       </c>
@@ -3733,7 +3785,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>145</v>
       </c>
@@ -3759,7 +3811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>146</v>
       </c>
@@ -3785,7 +3837,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>147</v>
       </c>
@@ -3811,7 +3863,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>154</v>
       </c>
@@ -3837,7 +3889,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>155</v>
       </c>
@@ -3863,7 +3915,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>156</v>
       </c>
@@ -3889,7 +3941,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>157</v>
       </c>
@@ -3915,7 +3967,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>159</v>
       </c>
@@ -3941,7 +3993,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>171</v>
       </c>
@@ -3967,7 +4019,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>172</v>
       </c>
@@ -3993,7 +4045,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>173</v>
       </c>
@@ -4019,7 +4071,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>175</v>
       </c>
@@ -4045,7 +4097,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>180</v>
       </c>
@@ -4071,7 +4123,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>185</v>
       </c>
@@ -4097,7 +4149,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>188</v>
       </c>
@@ -4123,7 +4175,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>193</v>
       </c>
@@ -4149,7 +4201,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>195</v>
       </c>
@@ -4175,7 +4227,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>196</v>
       </c>
@@ -4201,7 +4253,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>199</v>
       </c>
@@ -4227,7 +4279,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>200</v>
       </c>
@@ -4253,7 +4305,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>203</v>
       </c>
@@ -4279,7 +4331,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>204</v>
       </c>
@@ -4305,7 +4357,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>205</v>
       </c>
@@ -4331,7 +4383,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>206</v>
       </c>
@@ -4357,7 +4409,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>207</v>
       </c>
@@ -4383,7 +4435,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>208</v>
       </c>
@@ -4409,7 +4461,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>210</v>
       </c>
@@ -4435,7 +4487,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>211</v>
       </c>
@@ -4461,7 +4513,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>212</v>
       </c>
@@ -4487,7 +4539,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>213</v>
       </c>
@@ -4513,7 +4565,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>214</v>
       </c>
@@ -4539,7 +4591,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>215</v>
       </c>
@@ -4565,7 +4617,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>216</v>
       </c>
@@ -4591,7 +4643,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>217</v>
       </c>
@@ -4617,7 +4669,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>218</v>
       </c>
@@ -4643,7 +4695,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>219</v>
       </c>
@@ -4669,7 +4721,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>220</v>
       </c>
@@ -4695,7 +4747,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>221</v>
       </c>
@@ -4721,7 +4773,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>222</v>
       </c>
@@ -4747,7 +4799,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>223</v>
       </c>
@@ -4773,7 +4825,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>224</v>
       </c>
@@ -4799,7 +4851,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>225</v>
       </c>
@@ -4825,7 +4877,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>226</v>
       </c>
@@ -4851,7 +4903,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>227</v>
       </c>
@@ -4877,7 +4929,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>228</v>
       </c>
@@ -4903,7 +4955,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>229</v>
       </c>
@@ -4929,7 +4981,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>231</v>
       </c>
@@ -4955,7 +5007,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>232</v>
       </c>
@@ -4981,7 +5033,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>233</v>
       </c>
@@ -5007,7 +5059,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>235</v>
       </c>
@@ -5033,7 +5085,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>236</v>
       </c>
@@ -5059,7 +5111,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>237</v>
       </c>
@@ -5085,7 +5137,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>238</v>
       </c>
@@ -5111,7 +5163,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>239</v>
       </c>
@@ -5137,7 +5189,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>241</v>
       </c>
@@ -5163,7 +5215,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>242</v>
       </c>
@@ -5189,7 +5241,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>243</v>
       </c>
@@ -5215,7 +5267,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>245</v>
       </c>
@@ -5241,7 +5293,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>249</v>
       </c>
@@ -5267,7 +5319,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>250</v>
       </c>
@@ -5293,7 +5345,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>251</v>
       </c>
@@ -5319,7 +5371,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>252</v>
       </c>
@@ -5345,7 +5397,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>253</v>
       </c>
@@ -5371,7 +5423,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>255</v>
       </c>
@@ -5397,7 +5449,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>256</v>
       </c>
@@ -5423,7 +5475,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>257</v>
       </c>
@@ -5449,7 +5501,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>259</v>
       </c>
@@ -5475,7 +5527,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>260</v>
       </c>
@@ -5501,7 +5553,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>261</v>
       </c>
@@ -5527,7 +5579,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>262</v>
       </c>
@@ -5553,7 +5605,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>263</v>
       </c>
@@ -5579,7 +5631,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>264</v>
       </c>
@@ -5605,7 +5657,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>266</v>
       </c>
@@ -5631,7 +5683,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>269</v>
       </c>
@@ -5657,7 +5709,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>271</v>
       </c>
@@ -5683,7 +5735,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>272</v>
       </c>
@@ -5709,7 +5761,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>273</v>
       </c>
@@ -5735,7 +5787,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>274</v>
       </c>
@@ -5761,7 +5813,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>278</v>
       </c>
@@ -5787,7 +5839,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>280</v>
       </c>
@@ -5813,7 +5865,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>281</v>
       </c>
@@ -5839,7 +5891,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>290</v>
       </c>
@@ -5865,7 +5917,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>291</v>
       </c>
@@ -5891,7 +5943,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>293</v>
       </c>
@@ -5917,7 +5969,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>294</v>
       </c>
@@ -5943,7 +5995,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>295</v>
       </c>
@@ -5969,7 +6021,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>297</v>
       </c>
@@ -5995,7 +6047,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>299</v>
       </c>
@@ -6021,7 +6073,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>300</v>
       </c>
@@ -6047,7 +6099,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>301</v>
       </c>
@@ -6073,7 +6125,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>302</v>
       </c>
@@ -6099,7 +6151,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>303</v>
       </c>
@@ -6125,7 +6177,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>304</v>
       </c>
@@ -6151,7 +6203,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>305</v>
       </c>
@@ -6177,7 +6229,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>306</v>
       </c>
@@ -6203,7 +6255,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>307</v>
       </c>
@@ -6229,7 +6281,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>308</v>
       </c>
@@ -6255,7 +6307,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>311</v>
       </c>
@@ -6281,7 +6333,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>312</v>
       </c>
@@ -6307,7 +6359,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>314</v>
       </c>
@@ -6333,7 +6385,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>315</v>
       </c>
@@ -6359,7 +6411,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>317</v>
       </c>
@@ -6385,7 +6437,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>318</v>
       </c>
@@ -6411,7 +6463,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>329</v>
       </c>
@@ -6437,7 +6489,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>330</v>
       </c>
@@ -6463,7 +6515,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>331</v>
       </c>
@@ -6489,7 +6541,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>334</v>
       </c>
@@ -6515,7 +6567,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>335</v>
       </c>
@@ -6541,7 +6593,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>336</v>
       </c>
@@ -6567,7 +6619,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>338</v>
       </c>
@@ -6593,7 +6645,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>339</v>
       </c>
@@ -6619,7 +6671,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>340</v>
       </c>
@@ -6645,7 +6697,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>346</v>
       </c>
@@ -6671,7 +6723,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>347</v>
       </c>
@@ -6697,7 +6749,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>348</v>
       </c>
@@ -6723,7 +6775,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>349</v>
       </c>
@@ -6749,7 +6801,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>351</v>
       </c>
@@ -6775,7 +6827,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>354</v>
       </c>
@@ -6801,7 +6853,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>355</v>
       </c>
@@ -6827,7 +6879,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>357</v>
       </c>
@@ -6853,7 +6905,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>358</v>
       </c>
@@ -6879,7 +6931,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>360</v>
       </c>
@@ -6905,7 +6957,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>361</v>
       </c>
@@ -6931,7 +6983,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>362</v>
       </c>
@@ -6957,7 +7009,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>363</v>
       </c>
@@ -6983,7 +7035,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>364</v>
       </c>
@@ -7009,7 +7061,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>365</v>
       </c>
@@ -7035,7 +7087,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>366</v>
       </c>
@@ -7061,7 +7113,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>367</v>
       </c>
@@ -7087,7 +7139,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>368</v>
       </c>
@@ -7113,7 +7165,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>369</v>
       </c>
@@ -7139,7 +7191,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>370</v>
       </c>
@@ -7165,7 +7217,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>371</v>
       </c>
@@ -7191,7 +7243,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>372</v>
       </c>
@@ -7217,7 +7269,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>373</v>
       </c>
@@ -7243,7 +7295,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>375</v>
       </c>
@@ -7269,7 +7321,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>376</v>
       </c>
@@ -7295,7 +7347,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>377</v>
       </c>
@@ -7321,7 +7373,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>378</v>
       </c>
@@ -7347,7 +7399,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>379</v>
       </c>
@@ -7373,7 +7425,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>380</v>
       </c>
@@ -7399,7 +7451,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>381</v>
       </c>
@@ -7425,7 +7477,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>382</v>
       </c>
@@ -7451,7 +7503,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>383</v>
       </c>
@@ -7477,7 +7529,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>384</v>
       </c>
@@ -7503,7 +7555,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>385</v>
       </c>
@@ -7529,7 +7581,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>386</v>
       </c>
@@ -7555,7 +7607,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>387</v>
       </c>
@@ -7581,7 +7633,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>389</v>
       </c>
@@ -7607,7 +7659,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>390</v>
       </c>
@@ -7633,7 +7685,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>392</v>
       </c>
@@ -7659,7 +7711,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>393</v>
       </c>
@@ -7685,7 +7737,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>395</v>
       </c>
@@ -7711,7 +7763,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>397</v>
       </c>
@@ -7737,7 +7789,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>400</v>
       </c>
@@ -7763,7 +7815,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>401</v>
       </c>
@@ -7789,7 +7841,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>406</v>
       </c>
@@ -7815,7 +7867,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>408</v>
       </c>
@@ -7841,7 +7893,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>409</v>
       </c>
@@ -7867,7 +7919,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>410</v>
       </c>
@@ -7893,7 +7945,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>411</v>
       </c>
@@ -7919,7 +7971,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>414</v>
       </c>
@@ -7945,7 +7997,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>415</v>
       </c>
@@ -7971,7 +8023,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>416</v>
       </c>
@@ -7997,7 +8049,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>417</v>
       </c>
@@ -8023,7 +8075,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>418</v>
       </c>
@@ -8049,7 +8101,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>420</v>
       </c>
@@ -8075,7 +8127,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>421</v>
       </c>
@@ -8101,7 +8153,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>422</v>
       </c>
@@ -8127,7 +8179,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>423</v>
       </c>
@@ -8153,7 +8205,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>424</v>
       </c>
@@ -8179,7 +8231,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>426</v>
       </c>
@@ -8205,7 +8257,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>427</v>
       </c>
@@ -8231,7 +8283,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>428</v>
       </c>
@@ -8257,7 +8309,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>430</v>
       </c>
@@ -8283,7 +8335,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>431</v>
       </c>
@@ -8309,7 +8361,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>433</v>
       </c>
@@ -8335,7 +8387,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>434</v>
       </c>
@@ -8361,7 +8413,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>436</v>
       </c>
@@ -8387,7 +8439,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>439</v>
       </c>
@@ -8413,7 +8465,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>440</v>
       </c>
@@ -8439,7 +8491,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>447</v>
       </c>
@@ -8465,7 +8517,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>448</v>
       </c>
@@ -8491,7 +8543,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>450</v>
       </c>
@@ -8517,7 +8569,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>454</v>
       </c>
@@ -8543,7 +8595,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>456</v>
       </c>
@@ -8569,7 +8621,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>457</v>
       </c>
@@ -8595,7 +8647,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>458</v>
       </c>
@@ -8621,7 +8673,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>459</v>
       </c>
@@ -8647,7 +8699,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>461</v>
       </c>
@@ -8673,7 +8725,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>463</v>
       </c>
@@ -8699,7 +8751,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>464</v>
       </c>
@@ -8725,7 +8777,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>468</v>
       </c>
@@ -8751,7 +8803,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>470</v>
       </c>
@@ -8777,7 +8829,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>471</v>
       </c>
@@ -8803,7 +8855,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>474</v>
       </c>
@@ -8829,7 +8881,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>477</v>
       </c>
@@ -8855,7 +8907,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>478</v>
       </c>
@@ -8878,10 +8930,10 @@
         <v>1</v>
       </c>
       <c r="I279" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>483</v>
       </c>
@@ -8904,10 +8956,10 @@
         <v>1</v>
       </c>
       <c r="I280" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>485</v>
       </c>
@@ -8930,10 +8982,10 @@
         <v>1</v>
       </c>
       <c r="I281" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>490</v>
       </c>
@@ -8956,10 +9008,10 @@
         <v>1</v>
       </c>
       <c r="I282" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>492</v>
       </c>
@@ -8982,10 +9034,10 @@
         <v>1</v>
       </c>
       <c r="I283" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>493</v>
       </c>
@@ -9008,10 +9060,10 @@
         <v>1</v>
       </c>
       <c r="I284" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>495</v>
       </c>
@@ -9034,10 +9086,10 @@
         <v>1</v>
       </c>
       <c r="I285" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>496</v>
       </c>
@@ -9060,10 +9112,10 @@
         <v>1</v>
       </c>
       <c r="I286" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>497</v>
       </c>
@@ -9086,10 +9138,10 @@
         <v>1</v>
       </c>
       <c r="I287" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>498</v>
       </c>
@@ -9112,10 +9164,10 @@
         <v>1</v>
       </c>
       <c r="I288" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>500</v>
       </c>
@@ -9138,10 +9190,10 @@
         <v>1</v>
       </c>
       <c r="I289" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>502</v>
       </c>
@@ -9164,10 +9216,10 @@
         <v>1</v>
       </c>
       <c r="I290" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>503</v>
       </c>
@@ -9190,10 +9242,10 @@
         <v>1</v>
       </c>
       <c r="I291" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>504</v>
       </c>
@@ -9216,10 +9268,10 @@
         <v>1</v>
       </c>
       <c r="I292" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>506</v>
       </c>
@@ -9242,10 +9294,10 @@
         <v>1</v>
       </c>
       <c r="I293" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>507</v>
       </c>
@@ -9268,10 +9320,10 @@
         <v>1</v>
       </c>
       <c r="I294" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>508</v>
       </c>
@@ -9294,10 +9346,10 @@
         <v>1</v>
       </c>
       <c r="I295" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>511</v>
       </c>
@@ -9320,10 +9372,10 @@
         <v>1</v>
       </c>
       <c r="I296" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>513</v>
       </c>
@@ -9346,10 +9398,10 @@
         <v>1</v>
       </c>
       <c r="I297" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>514</v>
       </c>
@@ -9372,10 +9424,10 @@
         <v>1</v>
       </c>
       <c r="I298" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>516</v>
       </c>
@@ -9398,10 +9450,10 @@
         <v>1</v>
       </c>
       <c r="I299" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>522</v>
       </c>
@@ -9424,10 +9476,10 @@
         <v>1</v>
       </c>
       <c r="I300" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>524</v>
       </c>
@@ -9450,10 +9502,10 @@
         <v>1</v>
       </c>
       <c r="I301" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>525</v>
       </c>
@@ -9476,10 +9528,10 @@
         <v>1</v>
       </c>
       <c r="I302" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>526</v>
       </c>
@@ -9502,10 +9554,10 @@
         <v>1</v>
       </c>
       <c r="I303" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>527</v>
       </c>
@@ -9528,10 +9580,10 @@
         <v>1</v>
       </c>
       <c r="I304" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>529</v>
       </c>
@@ -9554,10 +9606,10 @@
         <v>1</v>
       </c>
       <c r="I305" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>531</v>
       </c>
@@ -9580,10 +9632,10 @@
         <v>1</v>
       </c>
       <c r="I306" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>532</v>
       </c>
@@ -9606,10 +9658,10 @@
         <v>1</v>
       </c>
       <c r="I307" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>533</v>
       </c>
@@ -9632,10 +9684,10 @@
         <v>1</v>
       </c>
       <c r="I308" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>534</v>
       </c>
@@ -9658,10 +9710,10 @@
         <v>1</v>
       </c>
       <c r="I309" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>536</v>
       </c>
@@ -9684,10 +9736,10 @@
         <v>1</v>
       </c>
       <c r="I310" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>537</v>
       </c>
@@ -9710,10 +9762,10 @@
         <v>1</v>
       </c>
       <c r="I311" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>538</v>
       </c>
@@ -9736,10 +9788,10 @@
         <v>1</v>
       </c>
       <c r="I312" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>542</v>
       </c>
@@ -9762,10 +9814,10 @@
         <v>1</v>
       </c>
       <c r="I313" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>543</v>
       </c>
@@ -9788,10 +9840,10 @@
         <v>1</v>
       </c>
       <c r="I314" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>546</v>
       </c>
@@ -9814,10 +9866,10 @@
         <v>1</v>
       </c>
       <c r="I315" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>547</v>
       </c>
@@ -9840,10 +9892,10 @@
         <v>1</v>
       </c>
       <c r="I316" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>548</v>
       </c>
@@ -9866,10 +9918,10 @@
         <v>1</v>
       </c>
       <c r="I317" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>550</v>
       </c>
@@ -9892,10 +9944,10 @@
         <v>1</v>
       </c>
       <c r="I318" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>551</v>
       </c>
@@ -9918,10 +9970,10 @@
         <v>1</v>
       </c>
       <c r="I319" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>552</v>
       </c>
@@ -9944,10 +9996,10 @@
         <v>1</v>
       </c>
       <c r="I320" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>553</v>
       </c>
@@ -9970,10 +10022,10 @@
         <v>1</v>
       </c>
       <c r="I321" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>554</v>
       </c>
@@ -9996,10 +10048,10 @@
         <v>1</v>
       </c>
       <c r="I322" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>555</v>
       </c>
@@ -10022,10 +10074,10 @@
         <v>1</v>
       </c>
       <c r="I323" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>556</v>
       </c>
@@ -10048,10 +10100,10 @@
         <v>1</v>
       </c>
       <c r="I324" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>557</v>
       </c>
@@ -10074,10 +10126,10 @@
         <v>1</v>
       </c>
       <c r="I325" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>559</v>
       </c>
@@ -10100,10 +10152,10 @@
         <v>1</v>
       </c>
       <c r="I326" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>560</v>
       </c>
@@ -10126,10 +10178,10 @@
         <v>1</v>
       </c>
       <c r="I327" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>561</v>
       </c>
@@ -10152,10 +10204,10 @@
         <v>1</v>
       </c>
       <c r="I328" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>563</v>
       </c>
@@ -10178,10 +10230,10 @@
         <v>1</v>
       </c>
       <c r="I329" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>564</v>
       </c>
@@ -10204,10 +10256,10 @@
         <v>1</v>
       </c>
       <c r="I330" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>565</v>
       </c>
@@ -10230,10 +10282,10 @@
         <v>1</v>
       </c>
       <c r="I331" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>567</v>
       </c>
@@ -10256,10 +10308,10 @@
         <v>1</v>
       </c>
       <c r="I332" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>568</v>
       </c>
@@ -10282,10 +10334,10 @@
         <v>1</v>
       </c>
       <c r="I333" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>569</v>
       </c>
@@ -10308,10 +10360,10 @@
         <v>1</v>
       </c>
       <c r="I334" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>570</v>
       </c>
@@ -10334,10 +10386,10 @@
         <v>1</v>
       </c>
       <c r="I335" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>571</v>
       </c>
@@ -10360,10 +10412,10 @@
         <v>1</v>
       </c>
       <c r="I336" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>572</v>
       </c>
@@ -10386,10 +10438,10 @@
         <v>1</v>
       </c>
       <c r="I337" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>573</v>
       </c>
@@ -10412,10 +10464,10 @@
         <v>1</v>
       </c>
       <c r="I338" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>575</v>
       </c>
@@ -10438,10 +10490,10 @@
         <v>1</v>
       </c>
       <c r="I339" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>576</v>
       </c>
@@ -10464,10 +10516,10 @@
         <v>1</v>
       </c>
       <c r="I340" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>577</v>
       </c>
@@ -10490,10 +10542,10 @@
         <v>1</v>
       </c>
       <c r="I341" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>579</v>
       </c>
@@ -10516,10 +10568,10 @@
         <v>1</v>
       </c>
       <c r="I342" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>580</v>
       </c>
@@ -10542,10 +10594,10 @@
         <v>1</v>
       </c>
       <c r="I343" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>581</v>
       </c>
@@ -10568,10 +10620,10 @@
         <v>1</v>
       </c>
       <c r="I344" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>582</v>
       </c>
@@ -10594,10 +10646,10 @@
         <v>1</v>
       </c>
       <c r="I345" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>583</v>
       </c>
@@ -10620,10 +10672,10 @@
         <v>1</v>
       </c>
       <c r="I346" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>585</v>
       </c>
@@ -10646,10 +10698,10 @@
         <v>1</v>
       </c>
       <c r="I347" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>586</v>
       </c>
@@ -10672,10 +10724,10 @@
         <v>1</v>
       </c>
       <c r="I348" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>587</v>
       </c>
@@ -10698,10 +10750,10 @@
         <v>1</v>
       </c>
       <c r="I349" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>589</v>
       </c>
@@ -10724,10 +10776,10 @@
         <v>1</v>
       </c>
       <c r="I350" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>590</v>
       </c>
@@ -10750,10 +10802,10 @@
         <v>1</v>
       </c>
       <c r="I351" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>591</v>
       </c>
@@ -10776,10 +10828,10 @@
         <v>1</v>
       </c>
       <c r="I352" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>592</v>
       </c>
@@ -10802,10 +10854,10 @@
         <v>1</v>
       </c>
       <c r="I353" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>593</v>
       </c>
@@ -10828,10 +10880,10 @@
         <v>1</v>
       </c>
       <c r="I354" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>594</v>
       </c>
@@ -10854,10 +10906,10 @@
         <v>1</v>
       </c>
       <c r="I355" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>595</v>
       </c>
@@ -10880,10 +10932,10 @@
         <v>1</v>
       </c>
       <c r="I356" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>596</v>
       </c>
@@ -10906,10 +10958,10 @@
         <v>1</v>
       </c>
       <c r="I357" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>597</v>
       </c>
@@ -10932,10 +10984,10 @@
         <v>1</v>
       </c>
       <c r="I358" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>598</v>
       </c>
@@ -10958,10 +11010,10 @@
         <v>1</v>
       </c>
       <c r="I359" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>607</v>
       </c>
@@ -10984,10 +11036,10 @@
         <v>1</v>
       </c>
       <c r="I360" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>608</v>
       </c>
@@ -11010,10 +11062,10 @@
         <v>1</v>
       </c>
       <c r="I361" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>611</v>
       </c>
@@ -11036,10 +11088,10 @@
         <v>1</v>
       </c>
       <c r="I362" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="363" spans="1:9">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>612</v>
       </c>
@@ -11062,10 +11114,10 @@
         <v>1</v>
       </c>
       <c r="I363" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="364" spans="1:9">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>617</v>
       </c>
@@ -11088,10 +11140,10 @@
         <v>1</v>
       </c>
       <c r="I364" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="365" spans="1:9">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>618</v>
       </c>
@@ -11114,10 +11166,10 @@
         <v>1</v>
       </c>
       <c r="I365" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>620</v>
       </c>
@@ -11140,10 +11192,10 @@
         <v>1</v>
       </c>
       <c r="I366" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>623</v>
       </c>
@@ -11166,10 +11218,10 @@
         <v>1</v>
       </c>
       <c r="I367" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="368" spans="1:9">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>624</v>
       </c>
@@ -11192,10 +11244,10 @@
         <v>1</v>
       </c>
       <c r="I368" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="369" spans="1:9">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>626</v>
       </c>
@@ -11218,10 +11270,10 @@
         <v>1</v>
       </c>
       <c r="I369" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="370" spans="1:9">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>627</v>
       </c>
@@ -11244,10 +11296,10 @@
         <v>1</v>
       </c>
       <c r="I370" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="371" spans="1:9">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>628</v>
       </c>
@@ -11270,10 +11322,10 @@
         <v>1</v>
       </c>
       <c r="I371" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="372" spans="1:9">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>629</v>
       </c>
@@ -11296,10 +11348,10 @@
         <v>1</v>
       </c>
       <c r="I372" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="373" spans="1:9">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>630</v>
       </c>
@@ -11322,10 +11374,10 @@
         <v>1</v>
       </c>
       <c r="I373" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>631</v>
       </c>
@@ -11348,10 +11400,10 @@
         <v>1</v>
       </c>
       <c r="I374" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="375" spans="1:9">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>632</v>
       </c>
@@ -11374,10 +11426,10 @@
         <v>1</v>
       </c>
       <c r="I375" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="376" spans="1:9">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>633</v>
       </c>
@@ -11400,10 +11452,10 @@
         <v>1</v>
       </c>
       <c r="I376" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="377" spans="1:9">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>634</v>
       </c>
@@ -11426,10 +11478,10 @@
         <v>1</v>
       </c>
       <c r="I377" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="378" spans="1:9">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>636</v>
       </c>
@@ -11452,10 +11504,10 @@
         <v>1</v>
       </c>
       <c r="I378" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="379" spans="1:9">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>637</v>
       </c>
@@ -11478,10 +11530,10 @@
         <v>1</v>
       </c>
       <c r="I379" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="380" spans="1:9">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>638</v>
       </c>
@@ -11504,10 +11556,10 @@
         <v>1</v>
       </c>
       <c r="I380" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="381" spans="1:9">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>639</v>
       </c>
@@ -11530,10 +11582,10 @@
         <v>1</v>
       </c>
       <c r="I381" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="382" spans="1:9">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>640</v>
       </c>
@@ -11556,10 +11608,10 @@
         <v>1</v>
       </c>
       <c r="I382" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="383" spans="1:9">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>641</v>
       </c>
@@ -11582,10 +11634,10 @@
         <v>1</v>
       </c>
       <c r="I383" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="384" spans="1:9">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>642</v>
       </c>
@@ -11608,10 +11660,10 @@
         <v>1</v>
       </c>
       <c r="I384" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>643</v>
       </c>
@@ -11634,10 +11686,10 @@
         <v>1</v>
       </c>
       <c r="I385" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>644</v>
       </c>
@@ -11660,10 +11712,10 @@
         <v>1</v>
       </c>
       <c r="I386" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="387" spans="1:9">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>645</v>
       </c>
@@ -11686,10 +11738,10 @@
         <v>1</v>
       </c>
       <c r="I387" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="388" spans="1:9">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>647</v>
       </c>
@@ -11712,10 +11764,10 @@
         <v>1</v>
       </c>
       <c r="I388" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="389" spans="1:9">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>648</v>
       </c>
@@ -11738,10 +11790,10 @@
         <v>1</v>
       </c>
       <c r="I389" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="390" spans="1:9">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>649</v>
       </c>
@@ -11764,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="I390" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -11773,14 +11825,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11788,19 +11840,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -11808,7 +11860,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D2">
         <v>441</v>
@@ -11823,7 +11875,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -11831,7 +11883,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D3">
         <v>202</v>
@@ -11846,7 +11898,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -11854,7 +11906,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D4">
         <v>260</v>
@@ -11869,7 +11921,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -11877,7 +11929,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D5">
         <v>27</v>
@@ -11892,7 +11944,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -11900,7 +11952,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D6">
         <v>132</v>
@@ -11915,7 +11967,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -11923,7 +11975,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D7">
         <v>77</v>
@@ -11938,7 +11990,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -11946,7 +11998,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D8">
         <v>180</v>
@@ -11961,7 +12013,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -11969,7 +12021,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D9">
         <v>200</v>
@@ -11984,7 +12036,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -11992,7 +12044,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D10">
         <v>420</v>
@@ -12007,7 +12059,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -12015,7 +12067,7 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D11">
         <v>130</v>
@@ -12030,7 +12082,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -12038,7 +12090,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D12">
         <v>550</v>
@@ -12053,7 +12105,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -12061,7 +12113,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D13">
         <v>596</v>
@@ -12076,7 +12128,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -12084,7 +12136,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D14">
         <v>142</v>
@@ -12099,7 +12151,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -12107,7 +12159,7 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D15">
         <v>315</v>
@@ -12122,7 +12174,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -12130,7 +12182,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D16">
         <v>217</v>
@@ -12145,7 +12197,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -12153,7 +12205,7 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D17">
         <v>250</v>
@@ -12168,15 +12220,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
       <c r="B18" t="s">
+        <v>412</v>
+      </c>
+      <c r="C18" t="s">
         <v>413</v>
-      </c>
-      <c r="C18" t="s">
-        <v>414</v>
       </c>
       <c r="D18">
         <v>241</v>
@@ -12191,15 +12243,15 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D19">
         <v>161</v>
@@ -12220,14 +12272,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12235,19 +12287,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -12255,7 +12307,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D2">
         <v>441</v>
@@ -12270,7 +12322,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -12278,7 +12330,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D3">
         <v>202</v>
@@ -12293,7 +12345,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -12301,7 +12353,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D4">
         <v>260</v>
@@ -12316,7 +12368,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -12324,7 +12376,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D5">
         <v>27</v>
@@ -12339,7 +12391,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -12347,7 +12399,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D6">
         <v>132</v>
@@ -12362,7 +12414,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -12370,7 +12422,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D7">
         <v>77</v>
@@ -12385,7 +12437,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -12393,7 +12445,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D8">
         <v>180</v>
@@ -12408,7 +12460,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -12416,7 +12468,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D9">
         <v>200</v>
@@ -12431,7 +12483,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -12439,7 +12491,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D10">
         <v>420</v>
@@ -12454,7 +12506,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -12462,7 +12514,7 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D11">
         <v>130</v>
@@ -12477,7 +12529,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -12485,7 +12537,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D12">
         <v>550</v>
@@ -12500,7 +12552,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -12508,7 +12560,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D13">
         <v>596</v>
@@ -12523,7 +12575,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -12531,7 +12583,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D14">
         <v>142</v>
@@ -12546,7 +12598,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -12554,7 +12606,7 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D15">
         <v>315</v>
@@ -12569,7 +12621,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -12577,7 +12629,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D16">
         <v>217</v>
@@ -12592,7 +12644,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -12600,7 +12652,7 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D17">
         <v>250</v>
@@ -12615,15 +12667,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
       <c r="B18" t="s">
+        <v>412</v>
+      </c>
+      <c r="C18" t="s">
         <v>413</v>
-      </c>
-      <c r="C18" t="s">
-        <v>414</v>
       </c>
       <c r="D18">
         <v>292</v>
@@ -12638,15 +12690,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D19">
         <v>224</v>

--- a/REyeker-DataAnalyses-Python/results/data_of_corrects.xlsx
+++ b/REyeker-DataAnalyses-Python/results/data_of_corrects.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="corrects" sheetId="1" r:id="rId1"/>
+    <sheet name="corrects.info" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="422">
   <si>
     <t>Subject</t>
   </si>
@@ -1241,6 +1242,45 @@
   </si>
   <si>
     <t>188-80 267-150 274-470 268-414 270-262 270-302 380-419 706-393 349-386 604-385 304-431 308-477 290-435 262-300 547-305 327-305 308-541 296-397 287-298 252-441 321-466 372-381 302-165</t>
+  </si>
+  <si>
+    <t>rec correct</t>
+  </si>
+  <si>
+    <t>rec total Answers</t>
+  </si>
+  <si>
+    <t>rec percent</t>
+  </si>
+  <si>
+    <t>R_ResponseTimeMean</t>
+  </si>
+  <si>
+    <t>R_ResponseTimeDeviation</t>
+  </si>
+  <si>
+    <t>it correct</t>
+  </si>
+  <si>
+    <t>it total Answers</t>
+  </si>
+  <si>
+    <t>it percent</t>
+  </si>
+  <si>
+    <t>I_ResponseTimeMean</t>
+  </si>
+  <si>
+    <t>I_ResponseTimeDeviation</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Bottom-Up</t>
+  </si>
+  <si>
+    <t>Top-Down</t>
   </si>
 </sst>
 </file>
@@ -10580,4 +10620,834 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>441</v>
+      </c>
+      <c r="H2">
+        <v>201</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>283</v>
+      </c>
+      <c r="M2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>202</v>
+      </c>
+      <c r="H3">
+        <v>99</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>322</v>
+      </c>
+      <c r="M3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>260</v>
+      </c>
+      <c r="H4">
+        <v>156</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>261</v>
+      </c>
+      <c r="M4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>27</v>
+      </c>
+      <c r="H5">
+        <v>28</v>
+      </c>
+      <c r="I5">
+        <v>16</v>
+      </c>
+      <c r="J5">
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>401</v>
+      </c>
+      <c r="M5">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>132</v>
+      </c>
+      <c r="H6">
+        <v>251</v>
+      </c>
+      <c r="I6">
+        <v>27</v>
+      </c>
+      <c r="J6">
+        <v>27</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>139</v>
+      </c>
+      <c r="M6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>77</v>
+      </c>
+      <c r="H7">
+        <v>35</v>
+      </c>
+      <c r="I7">
+        <v>19</v>
+      </c>
+      <c r="J7">
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>109</v>
+      </c>
+      <c r="M7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>420</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>180</v>
+      </c>
+      <c r="H8">
+        <v>143</v>
+      </c>
+      <c r="I8">
+        <v>18</v>
+      </c>
+      <c r="J8">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>240</v>
+      </c>
+      <c r="M8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>421</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>200</v>
+      </c>
+      <c r="H9">
+        <v>154</v>
+      </c>
+      <c r="I9">
+        <v>23</v>
+      </c>
+      <c r="J9">
+        <v>23</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>180</v>
+      </c>
+      <c r="M9">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>420</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>420</v>
+      </c>
+      <c r="H10">
+        <v>516</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>399</v>
+      </c>
+      <c r="M10">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>421</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>130</v>
+      </c>
+      <c r="H11">
+        <v>92</v>
+      </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
+      <c r="J11">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>210</v>
+      </c>
+      <c r="M11">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>420</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>550</v>
+      </c>
+      <c r="H12">
+        <v>88</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>464</v>
+      </c>
+      <c r="M12">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>421</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>596</v>
+      </c>
+      <c r="H13">
+        <v>367</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>256</v>
+      </c>
+      <c r="M13">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>420</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>142</v>
+      </c>
+      <c r="H14">
+        <v>71</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>510</v>
+      </c>
+      <c r="M14">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>421</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>315</v>
+      </c>
+      <c r="H15">
+        <v>371</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>166</v>
+      </c>
+      <c r="M15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>420</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>217</v>
+      </c>
+      <c r="H16">
+        <v>190</v>
+      </c>
+      <c r="I16">
+        <v>22</v>
+      </c>
+      <c r="J16">
+        <v>22</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>224</v>
+      </c>
+      <c r="M16">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>421</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>250</v>
+      </c>
+      <c r="H17">
+        <v>264</v>
+      </c>
+      <c r="I17">
+        <v>23</v>
+      </c>
+      <c r="J17">
+        <v>23</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>160</v>
+      </c>
+      <c r="M17">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>419</v>
+      </c>
+      <c r="C18" t="s">
+        <v>421</v>
+      </c>
+      <c r="D18">
+        <v>87</v>
+      </c>
+      <c r="E18">
+        <v>87</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>241</v>
+      </c>
+      <c r="H18">
+        <v>256</v>
+      </c>
+      <c r="I18">
+        <v>96</v>
+      </c>
+      <c r="J18">
+        <v>96</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>250</v>
+      </c>
+      <c r="M18">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>419</v>
+      </c>
+      <c r="C19" t="s">
+        <v>420</v>
+      </c>
+      <c r="D19">
+        <v>95</v>
+      </c>
+      <c r="E19">
+        <v>95</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>161</v>
+      </c>
+      <c r="H19">
+        <v>207</v>
+      </c>
+      <c r="I19">
+        <v>111</v>
+      </c>
+      <c r="J19">
+        <v>111</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>212</v>
+      </c>
+      <c r="M19">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>419</v>
+      </c>
+      <c r="C20" t="s">
+        <v>419</v>
+      </c>
+      <c r="D20">
+        <v>182</v>
+      </c>
+      <c r="E20">
+        <v>182</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>199</v>
+      </c>
+      <c r="H20">
+        <v>235</v>
+      </c>
+      <c r="I20">
+        <v>207</v>
+      </c>
+      <c r="J20">
+        <v>207</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>230</v>
+      </c>
+      <c r="M20">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>